--- a/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx
+++ b/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8F9BC-F658-4B9D-B99A-560915FB9E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F162E551-BA09-4063-B7C0-35817A259AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>sourcequerymode</t>
   </si>
@@ -164,13 +164,16 @@
     <t>patienttgt</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>source_to_target</t>
   </si>
   <si>
     <t>SAMPLE_TGT_PATIENTS</t>
+  </si>
+  <si>
+    <t>BIRTHDATE,DEATHDATE</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +668,9 @@
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -729,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,7 +759,9 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -785,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">

--- a/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx
+++ b/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F162E551-BA09-4063-B7C0-35817A259AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA268CA1-A54C-40D3-93B5-01BC44A94E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,31 +149,31 @@
     <t>testcase24_snowflake_snowflake_etljob</t>
   </si>
   <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>SAMPLE_SRC_PATIENTS</t>
+  </si>
+  <si>
+    <t>patientsrc</t>
+  </si>
+  <si>
+    <t>patienttgt</t>
+  </si>
+  <si>
+    <t>source_to_target</t>
+  </si>
+  <si>
+    <t>SAMPLE_TGT_PATIENTS</t>
+  </si>
+  <si>
+    <t>BIRTHDATE,DEATHDATE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>raw_snowflake_sql_connection</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>SAMPLE_SRC_PATIENTS</t>
-  </si>
-  <si>
-    <t>patientsrc</t>
-  </si>
-  <si>
-    <t>patienttgt</t>
-  </si>
-  <si>
-    <t>source_to_target</t>
-  </si>
-  <si>
-    <t>SAMPLE_TGT_PATIENTS</t>
-  </si>
-  <si>
-    <t>BIRTHDATE,DEATHDATE</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
